--- a/bqmData.xlsx
+++ b/bqmData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8633592128753662</v>
+        <v>0.9731829166412354</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7513790130615234</v>
+        <v>0.9799673557281494</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8255233764648438</v>
+        <v>0.8042161464691162</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9474782943725586</v>
+        <v>0.7272536754608154</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -494,9 +494,119 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.016413450241089</v>
+        <v>0.7328999042510986</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7711033821105957</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8378114700317383</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8161995410919189</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7516613006591797</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8988404273986816</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7434217929840088</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.186336994171143</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6846952438354492</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7946467399597168</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7224068641662598</v>
+      </c>
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/bqmData.xlsx
+++ b/bqmData.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9731829166412354</v>
+        <v>1.454041004180908</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9799673557281494</v>
+        <v>0.7070913314819336</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8042161464691162</v>
+        <v>0.7264645099639893</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7272536754608154</v>
+        <v>0.9150509834289551</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7328999042510986</v>
+        <v>0.8342394828796387</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7711033821105957</v>
+        <v>0.7388007640838623</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8378114700317383</v>
+        <v>0.9064745903015137</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8161995410919189</v>
+        <v>0.8812637329101562</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7516613006591797</v>
+        <v>1.001334667205811</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8988404273986816</v>
+        <v>0.8137397766113281</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7434217929840088</v>
+        <v>1.312479257583618</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.186336994171143</v>
+        <v>0.7218267917633057</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6846952438354492</v>
+        <v>0.7133142948150635</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7946467399597168</v>
+        <v>0.9547965526580811</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7224068641662598</v>
+        <v>0.7001020908355713</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>

--- a/bqmData.xlsx
+++ b/bqmData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ExecutionTime</t>
+          <t>Problem No.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>BestAnswer</t>
+          <t>Answer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>QPU Access Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Runtime</t>
         </is>
       </c>
     </row>
@@ -450,10 +460,18 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.454041004180908</v>
-      </c>
-      <c r="C2" t="n">
         <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 1, 2: 1, 3: 0, 4: 1, 5: 0, 6: 1, 7: 0}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>110386</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2985637</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +479,18 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7070913314819336</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 1, 2: 0, 3: 1, 4: 1, 5: 0, 6: 1, 7: 1, 8: 1, 9: 0, 10: 1, 11: 0, 12: 0}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>100160</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2983941</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +498,18 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7264645099639893</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 0, 2: 1, 3: 0, 4: 1, 5: 0, 6: 1, 7: 0, 8: 1, 9: 1, 10: 1, 11: 1, 12: 0, 13: 1, 14: 0, 15: 0, 16: 0, 17: 0}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>121450</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2998463</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +517,18 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9150509834289551</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 0, 2: 0, 3: 0, 4: 1, 5: 1, 6: 1, 7: 0, 8: 1, 9: 0, 10: 0, 11: 1, 12: 1, 13: 1, 14: 0, 15: 0, 16: 1, 17: 0, 18: 0}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>104871</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2998866</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +536,18 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8342394828796387</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{0: 1, 1: 0, 2: 1, 3: 0, 4: 1, 5: 1, 6: 1, 7: 1, 8: 0, 9: 0, 10: 0, 11: 1, 12: 0, 13: 1, 14: 1, 15: 0, 16: 1, 17: 1, 18: 1, 19: 1, 20: 0, 21: 0}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>107251</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2992442</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +555,18 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7388007640838623</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{0: 1, 1: 0, 2: 0, 3: 0, 4: 1, 5: 1, 6: 0, 7: 0, 8: 1, 9: 1, 10: 0}</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>82169</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2993494</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +574,18 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9064745903015137</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>{0: 1, 1: 1, 2: 1, 3: 0, 4: 0, 5: 0}</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>78116</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2996385</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +593,18 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8812637329101562</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>{0: 1, 1: 1, 2: 1, 3: 1, 4: 1, 5: 0, 6: 0, 7: 0, 8: 0}</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>64202</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2986968</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +612,18 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.001334667205811</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 1, 2: 1, 3: 0, 4: 1, 5: 1, 6: 1, 7: 1, 8: 1, 9: 1, 10: 0, 11: 0, 12: 1, 13: 0, 14: 0, 15: 1, 16: 1, 17: 0}</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>104082</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2982333</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +631,18 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8137397766113281</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 0, 2: 1, 3: 1, 4: 0, 5: 0, 6: 0, 7: 0, 8: 1, 9: 0, 10: 1, 11: 0, 12: 0, 13: 1, 14: 1, 15: 1, 16: 0, 17: 1, 18: 1, 19: 1, 20: 0, 21: 1, 22: 0, 23: 0}</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>90709</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2993874</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +650,18 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.312479257583618</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{0: 1, 1: 1, 2: 0, 3: 0, 4: 0, 5: 0, 6: 1, 7: 0, 8: 1, 9: 1, 10: 0, 11: 1, 12: 1, 13: 1, 14: 1, 15: 1, 16: 0, 17: 0, 18: 0, 19: 0, 20: 0, 21: 0, 22: 0, 23: 1, 24: 0}</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>128079</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2997262</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +669,18 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7218267917633057</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{0: 1, 1: 1, 2: 1, 3: 1, 4: 1, 5: 0, 6: 0, 7: 0, 8: 0, 9: 1, 10: 0, 11: 0, 12: 0, 13: 0}</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>33672</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2823349</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +688,18 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7133142948150635</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{0: 1, 1: 1, 2: 1, 3: 0, 4: 1, 5: 1, 6: 1, 7: 1, 8: 0, 9: 0, 10: 1, 11: 0, 12: 1, 13: 0, 14: 1, 15: 1, 16: 0, 17: 0, 18: 0, 19: 1, 20: 0, 21: 1, 22: 0, 23: 0, 24: 1, 25: 0}</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>92289</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2988025</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +707,18 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9547965526580811</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{0: 1, 1: 1, 2: 1, 3: 0, 4: 1, 5: 1, 6: 1, 7: 0, 8: 1, 9: 1, 10: 0, 11: 1, 12: 0, 13: 0, 14: 0, 15: 1, 16: 0}</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>68923</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2994493</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +726,18 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7001020908355713</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{0: 1, 1: 1, 2: 1, 3: 0, 4: 0, 5: 0, 6: 0}</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>62899</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2995757</v>
       </c>
     </row>
   </sheetData>
